--- a/asset/contoh.xlsx
+++ b/asset/contoh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64F2763-0E2C-4D60-B907-9165C624F92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB1CA20-C62F-4DE8-BDEE-17BD1DD12CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{59932AE0-8FBE-45B5-AFF7-F5A334B1042F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>latitude</t>
   </si>
@@ -51,10 +51,16 @@
     <t>tanggal</t>
   </si>
   <si>
-    <t>Humas</t>
-  </si>
-  <si>
-    <t>lorem ipsum sit dolor amet</t>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit. Etiam mauris nunc, venenatis lacinia egestas vel, convallis nec mauris.</t>
+  </si>
+  <si>
+    <t>`-2.9554476549869366</t>
+  </si>
+  <si>
+    <t>`104.76122201556687</t>
+  </si>
+  <si>
+    <t>TI</t>
   </si>
 </sst>
 </file>
@@ -62,15 +68,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,10 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,14 +427,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -442,24 +455,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-6199837988889690</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.06796589990554E+16</v>
+        <v>45200</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>